--- a/cucumberclass/test output/ExcelReport/ExtentExcel.xlsx
+++ b/cucumberclass/test output/ExcelReport/ExtentExcel.xlsx
@@ -187,31 +187,31 @@
     <t>device</t>
   </si>
   <si>
-    <t>Mar 21, 2024 7:26:17 AM</t>
+    <t>Mar 24, 2024 7:22:22 AM</t>
   </si>
   <si>
-    <t>Mar 21, 2024 7:25:56 AM</t>
+    <t>Mar 24, 2024 7:22:14 AM</t>
   </si>
   <si>
-    <t>Mar 21, 2024 7:26:00 AM</t>
+    <t>Mar 24, 2024 7:22:19 AM</t>
   </si>
   <si>
-    <t>4.249 s</t>
+    <t>5.191 s</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Valid User Login</t>
+    <t>Google Search</t>
   </si>
   <si>
-    <t>3.433 s</t>
+    <t>4.357 s</t>
   </si>
   <si>
-    <t>User Authentication</t>
+    <t>As a User</t>
   </si>
   <si>
-    <t>3.439 s</t>
+    <t>4.363 s</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +1775,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valid User Login</c:v>
+                  <c:v>Google Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1786,7 +1786,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,7 +1847,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valid User Login</c:v>
+                  <c:v>Google Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1914,7 +1914,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Valid User Login</c:v>
+                  <c:v>Google Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2691,7 +2691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>User Authentication</c:v>
+                  <c:v>As a User</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2763,7 +2763,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>User Authentication</c:v>
+                  <c:v>As a User</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2830,7 +2830,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>User Authentication</c:v>
+                  <c:v>As a User</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5736,7 +5736,7 @@
     <col min="7" max="7" customWidth="true" width="20.85546875"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="true" password="D7C3" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="FDBB" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5826,10 +5826,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="57" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" s="58" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
@@ -5949,10 +5949,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="57" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="K22" s="58" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="L22" s="59"/>
       <c r="M22" s="60"/>
@@ -6031,7 +6031,7 @@
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
